--- a/数据整理/stocks/港股/02628-中国人寿.xlsx
+++ b/数据整理/stocks/港股/02628-中国人寿.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.24</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>10.13</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006579</t>
+          <t>005142</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通非银行金融主题指数C</t>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.13</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>78.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001942</t>
+          <t>006579</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+          <t>泰康中证港股通非银行金融主题指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20.21</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001943</t>
+          <t>005143</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20.21</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>78.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>60.48</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.40</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009129</t>
+          <t>001943</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>明亚价值长青混合C</t>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>60.48</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005142</t>
+          <t>009129</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
+          <t>明亚价值长青混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>78.08</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.84</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>60.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005143</t>
+          <t>001942</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>78.08</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.84</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +862,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004316</t>
+          <t>006578</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+          <t>泰康中证港股通非银行金融主题指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -790,26 +900,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004317</t>
+          <t>006579</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+          <t>泰康中证港股通非银行金融主题指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -818,26 +938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006578</t>
+          <t>004316</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康中证港股通非银行金融主题指数A</t>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.27</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -846,26 +976,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006579</t>
+          <t>004317</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰康中证港股通非银行金融主题指数C</t>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9.27</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/02628-中国人寿.xlsx
+++ b/数据整理/stocks/港股/02628-中国人寿.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006578</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006579</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02628-中国人寿.xlsx
+++ b/数据整理/stocks/港股/02628-中国人寿.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1144,4 +1145,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006578</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006579</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02628-中国人寿.xlsx
+++ b/数据整理/stocks/港股/02628-中国人寿.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02628-中国人寿.xlsx
+++ b/数据整理/stocks/港股/02628-中国人寿.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1362,7 +1363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,17 +1374,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1393,14 +1414,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.16</v>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1409,14 +1452,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -1425,14 +1558,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -1441,13 +1574,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.3</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02628-中国人寿.xlsx
+++ b/数据整理/stocks/港股/02628-中国人寿.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1495,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1506,17 +1507,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1526,14 +1547,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.05</v>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1542,14 +1585,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.16</v>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1558,14 +1623,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.13</v>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1574,14 +1661,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
@@ -1590,13 +1799,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.3</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02628-中国人寿.xlsx
+++ b/数据整理/stocks/港股/02628-中国人寿.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1704,7 +1705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,17 +1716,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1735,14 +1756,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.06</v>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1751,14 +1794,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.05</v>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1767,14 +1832,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.16</v>
       </c>
     </row>
     <row r="5">
@@ -1783,14 +1870,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.13</v>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1799,14 +1908,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.18</v>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1815,13 +1946,181 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.3</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02628-中国人寿.xlsx
+++ b/数据整理/stocks/港股/02628-中国人寿.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,361 +457,431 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006578</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰康中证港股通非银行金融主题指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10.13</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0902</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005142</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>78.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.84</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0698</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+      <c r="D3" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006579</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰康中证港股通非银行金融主题指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10.13</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0557</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005143</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>78.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.84</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0321</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
+      <c r="D5" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009128</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>明亚价值长青混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>60.48</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001943</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009129</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>明亚价值长青混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>60.48</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001942</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>20.21</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -838,7 +908,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -868,36 +938,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006578</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康中证港股通非银行金融主题指数A</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1048</t>
+          <t>0.0403</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -906,36 +976,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006579</t>
+          <t>001942</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通非银行金融主题指数C</t>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>90.39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0510</t>
+          <t>0.0074</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -944,32 +1014,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004316</t>
+          <t>001943</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>90.39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0190</t>
+          <t>0.0059</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -982,36 +1052,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004317</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0095</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1019,7 +1089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1046,7 +1116,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1076,36 +1146,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006578</t>
+          <t>501310</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康中证港股通非银行金融主题指数A</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.76</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0876</t>
+          <t>0.0439</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1114,36 +1184,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006579</t>
+          <t>007397</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通非银行金融主题指数C</t>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.76</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0438</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1359,7 +1429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1386,7 +1456,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1416,36 +1486,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>006578</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>泰康中证港股通非银行金融主题指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>93.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>8.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0439</t>
+          <t>0.0876</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1454,36 +1524,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>006579</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>泰康中证港股通非银行金融主题指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>93.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>8.76</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.0438</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1491,7 +1561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1518,7 +1588,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1548,36 +1618,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501310</t>
+          <t>006578</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+          <t>泰康中证港股通非银行金融主题指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>94.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0403</t>
+          <t>0.1048</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1586,36 +1656,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001942</t>
+          <t>006579</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+          <t>泰康中证港股通非银行金融主题指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.39</t>
+          <t>94.31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.0510</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1624,32 +1694,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001943</t>
+          <t>004316</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.39</t>
+          <t>90.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0059</t>
+          <t>0.0190</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1662,318 +1732,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007397</t>
+          <t>004317</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>90.36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0095</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501310</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0361</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004316</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0203</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005707</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国港股通量化精选股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.92</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>014163</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国港股通量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.92</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1987,144 +1775,356 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>006578</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006579</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>8</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.3</v>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/02628-中国人寿.xlsx
+++ b/数据整理/stocks/港股/02628-中国人寿.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -600,6 +617,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5010</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4546</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2193</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012683</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红安盈甄选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012684</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红安盈甄选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016921</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -881,7 +1562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1089,7 +1770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1221,7 +1902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1429,7 +2110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1561,7 +2242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1769,7 +2450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
